--- a/CurrentWork_Delta/RMB_DXP/DDCA QA State E&B - Current State.xlsx
+++ b/CurrentWork_Delta/RMB_DXP/DDCA QA State E&B - Current State.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A5E38E-47A4-492D-BD3F-B2590D4F39FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E140C3B-5499-4DFE-8720-F39F50687678}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33705" yWindow="3060" windowWidth="16560" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1620" yWindow="1050" windowWidth="26505" windowHeight="13170" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="3" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="412">
   <si>
     <t>Score</t>
   </si>
@@ -1674,14 +1674,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1697,14 +1705,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3811,9 +3811,9 @@
   </sheetPr>
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3821,7 +3821,7 @@
     <col min="1" max="1" width="15.85546875" style="21" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="21" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="21" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" style="21" bestFit="1" customWidth="1"/>
@@ -3862,7 +3862,7 @@
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
     </row>
-    <row r="3" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>119</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3919,8 +3919,8 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -3954,8 +3954,8 @@
       <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="17" t="s">
         <v>85</v>
       </c>
@@ -3986,8 +3986,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="17" t="s">
         <v>319</v>
       </c>
@@ -4018,8 +4018,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="17" t="s">
         <v>70</v>
       </c>
@@ -4038,7 +4038,7 @@
       <c r="H8" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="38" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="21">
@@ -4050,8 +4050,8 @@
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="17" t="s">
         <v>329</v>
       </c>
@@ -4081,8 +4081,8 @@
       <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="17" t="s">
         <v>328</v>
       </c>
@@ -4111,8 +4111,8 @@
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="17" t="s">
         <v>328</v>
       </c>
@@ -4144,8 +4144,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="17" t="s">
         <v>309</v>
       </c>
@@ -4178,8 +4178,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="17" t="s">
         <v>324</v>
       </c>
@@ -4202,16 +4202,17 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="17" t="s">
         <v>330</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>272</v>
+      <c r="E14" s="21" t="str">
+        <f>D15</f>
+        <v>Are regression tests automated?</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>273</v>
@@ -4236,8 +4237,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="17" t="s">
         <v>331</v>
       </c>
@@ -4270,8 +4271,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="17" t="s">
         <v>129</v>
       </c>
@@ -4290,7 +4291,7 @@
       <c r="H16" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="38" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="21">
@@ -4304,8 +4305,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41" t="s">
         <v>392</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -4342,8 +4343,8 @@
       <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="24" t="s">
         <v>335</v>
       </c>
@@ -4373,8 +4374,8 @@
       <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="17" t="s">
         <v>157</v>
       </c>
@@ -4404,8 +4405,8 @@
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="17" t="s">
         <v>162</v>
       </c>
@@ -4435,8 +4436,8 @@
       <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -4475,8 +4476,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="17" t="s">
         <v>86</v>
       </c>
@@ -4507,8 +4508,8 @@
       <c r="O22" s="19"/>
     </row>
     <row r="23" spans="1:15" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="31" t="s">
         <v>104</v>
       </c>
@@ -4542,8 +4543,8 @@
       <c r="O23" s="35"/>
     </row>
     <row r="24" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="17" t="s">
         <v>87</v>
       </c>
@@ -4577,8 +4578,8 @@
       <c r="O24" s="19"/>
     </row>
     <row r="25" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="41" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="17" t="s">
@@ -4614,8 +4615,8 @@
       <c r="O25" s="19"/>
     </row>
     <row r="26" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="17" t="s">
         <v>362</v>
       </c>
@@ -4648,8 +4649,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="17" t="s">
         <v>123</v>
       </c>
@@ -4679,8 +4680,8 @@
       <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="17" t="s">
         <v>146</v>
       </c>
@@ -4710,8 +4711,8 @@
       <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="17" t="s">
         <v>242</v>
       </c>
@@ -4741,8 +4742,8 @@
       <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="17" t="s">
         <v>249</v>
       </c>
@@ -4775,8 +4776,8 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="17" t="s">
         <v>239</v>
       </c>
@@ -4806,8 +4807,8 @@
       <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41" t="s">
         <v>147</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -4839,8 +4840,8 @@
       <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="17" t="s">
         <v>281</v>
       </c>
@@ -4873,8 +4874,8 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="17" t="s">
         <v>344</v>
       </c>
@@ -4907,8 +4908,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="17" t="s">
         <v>255</v>
       </c>
@@ -4941,8 +4942,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40" t="s">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41" t="s">
         <v>148</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -4977,8 +4978,8 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="17" t="s">
         <v>266</v>
       </c>
@@ -5011,8 +5012,8 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="17" t="s">
         <v>186</v>
       </c>
@@ -5041,9 +5042,9 @@
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="41" t="s">
+    <row r="39" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -5084,9 +5085,9 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="41"/>
+    <row r="40" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="17" t="s">
         <v>17</v>
       </c>
@@ -5118,9 +5119,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="41"/>
+    <row r="41" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="17" t="s">
         <v>22</v>
       </c>
@@ -5149,9 +5150,9 @@
       <c r="K41" s="28"/>
       <c r="L41" s="28"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="41"/>
+    <row r="42" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="17" t="s">
         <v>27</v>
       </c>
@@ -5180,9 +5181,9 @@
       <c r="K42" s="28"/>
       <c r="L42" s="28"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="41"/>
+    <row r="43" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="17" t="s">
         <v>32</v>
       </c>
@@ -5211,9 +5212,9 @@
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="41"/>
+    <row r="44" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="17" t="s">
         <v>37</v>
       </c>
@@ -5242,9 +5243,9 @@
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="40" t="s">
+    <row r="45" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="41" t="s">
         <v>81</v>
       </c>
       <c r="C45" s="17" t="s">
@@ -5265,7 +5266,7 @@
       <c r="H45" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="47" t="s">
+      <c r="I45" s="39" t="s">
         <v>4</v>
       </c>
       <c r="J45" s="21">
@@ -5283,8 +5284,8 @@
       <c r="O45" s="19"/>
     </row>
     <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="17" t="s">
         <v>300</v>
       </c>
@@ -5318,8 +5319,8 @@
       <c r="O46" s="19"/>
     </row>
     <row r="47" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="40"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="17" t="s">
         <v>295</v>
       </c>
@@ -5353,8 +5354,8 @@
       <c r="O47" s="19"/>
     </row>
     <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="17" t="s">
         <v>393</v>
       </c>
@@ -5385,8 +5386,8 @@
       <c r="O48" s="19"/>
     </row>
     <row r="49" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="40"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="17" t="s">
         <v>261</v>
       </c>
@@ -5420,8 +5421,8 @@
       <c r="O49" s="19"/>
     </row>
     <row r="50" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="40"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="17" t="s">
         <v>46</v>
       </c>
@@ -5451,8 +5452,8 @@
       <c r="L50" s="28"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
-      <c r="B51" s="40"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="17" t="s">
         <v>343</v>
       </c>
@@ -5481,8 +5482,8 @@
       <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="40"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="17" t="s">
         <v>55</v>
       </c>
@@ -5515,8 +5516,8 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="40"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="17" t="s">
         <v>60</v>
       </c>
@@ -5535,7 +5536,7 @@
       <c r="H53" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I53" s="47" t="s">
+      <c r="I53" s="39" t="s">
         <v>4</v>
       </c>
       <c r="J53" s="21">
@@ -5549,8 +5550,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="40"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="17" t="s">
         <v>65</v>
       </c>
@@ -5569,7 +5570,7 @@
       <c r="H54" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I54" s="47" t="s">
+      <c r="I54" s="39" t="s">
         <v>4</v>
       </c>
       <c r="J54" s="21">
@@ -5583,8 +5584,8 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="40"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="17" t="s">
         <v>106</v>
       </c>
@@ -5603,7 +5604,7 @@
       <c r="H55" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="I55" s="47" t="s">
+      <c r="I55" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J55" s="21">
@@ -5614,8 +5615,8 @@
       <c r="L55" s="28"/>
     </row>
     <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="17" t="s">
         <v>111</v>
       </c>
@@ -5634,7 +5635,7 @@
       <c r="H56" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="I56" s="47" t="s">
+      <c r="I56" s="39" t="s">
         <v>5</v>
       </c>
       <c r="J56" s="21">
@@ -5648,8 +5649,8 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
-      <c r="B57" s="40"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="17" t="s">
         <v>80</v>
       </c>
@@ -5668,7 +5669,7 @@
       <c r="H57" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="I57" s="47" t="s">
+      <c r="I57" s="39" t="s">
         <v>4</v>
       </c>
       <c r="J57" s="21">
@@ -5682,8 +5683,8 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="40" t="s">
+      <c r="A58" s="40"/>
+      <c r="B58" s="41" t="s">
         <v>134</v>
       </c>
       <c r="C58" s="17" t="s">
@@ -5704,7 +5705,7 @@
       <c r="H58" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I58" s="47" t="s">
+      <c r="I58" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J58" s="21">
@@ -5725,8 +5726,8 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="40"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="17" t="s">
         <v>290</v>
       </c>
@@ -5742,7 +5743,7 @@
       <c r="H59" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="I59" s="47" t="s">
+      <c r="I59" s="39" t="s">
         <v>4</v>
       </c>
       <c r="J59" s="21">
@@ -5757,8 +5758,8 @@
       <c r="O59" s="19"/>
     </row>
     <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="40"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="17" t="s">
         <v>287</v>
       </c>
@@ -5771,7 +5772,7 @@
       <c r="H60" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="I60" s="47" t="s">
+      <c r="I60" s="39" t="s">
         <v>4</v>
       </c>
       <c r="J60" s="21">
@@ -5786,8 +5787,8 @@
       <c r="O60" s="19"/>
     </row>
     <row r="61" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
-      <c r="B61" s="40"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="17" t="s">
         <v>346</v>
       </c>
@@ -5806,7 +5807,7 @@
       <c r="H61" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="I61" s="47" t="s">
+      <c r="I61" s="39" t="s">
         <v>4</v>
       </c>
       <c r="J61" s="21">
@@ -5820,8 +5821,8 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="40" t="s">
+      <c r="A62" s="40"/>
+      <c r="B62" s="41" t="s">
         <v>207</v>
       </c>
       <c r="C62" s="17" t="s">
@@ -5842,7 +5843,7 @@
       <c r="H62" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="I62" s="47" t="s">
+      <c r="I62" s="39" t="s">
         <v>5</v>
       </c>
       <c r="J62" s="21">
@@ -5860,8 +5861,8 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="17" t="s">
         <v>212</v>
       </c>
@@ -5877,7 +5878,7 @@
       <c r="H63" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="I63" s="47" t="s">
+      <c r="I63" s="39" t="s">
         <v>7</v>
       </c>
       <c r="J63" s="21">
@@ -5888,8 +5889,8 @@
       <c r="L63" s="28"/>
     </row>
     <row r="64" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-      <c r="B64" s="40"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="17" t="s">
         <v>214</v>
       </c>
@@ -5908,7 +5909,7 @@
       <c r="H64" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="I64" s="47" t="s">
+      <c r="I64" s="39" t="s">
         <v>5</v>
       </c>
       <c r="J64" s="21">
@@ -5919,8 +5920,8 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
-      <c r="B65" s="40"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="41"/>
       <c r="C65" s="17" t="s">
         <v>219</v>
       </c>
@@ -5939,7 +5940,7 @@
       <c r="H65" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I65" s="47" t="s">
+      <c r="I65" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J65" s="21">
@@ -5950,34 +5951,29 @@
       <c r="L65" s="28"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="29"/>
       <c r="I66" s="27"/>
       <c r="K66" s="28"/>
       <c r="L66" s="28"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
     <mergeCell ref="B67:M67"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="B25:B31"/>
@@ -5989,6 +5985,11 @@
     <mergeCell ref="B45:B57"/>
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="B39">
     <cfRule type="expression" dxfId="83" priority="37" stopIfTrue="1">
@@ -6138,7 +6139,7 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{54FF5355-7A7E-4B7D-B396-3A1D1FF42EC5}">
           <x14:formula1>
             <xm:f>Lookup!$B$1:$B$5</xm:f>
@@ -6481,8 +6482,8 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="44" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -6517,8 +6518,8 @@
       <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="23" t="s">
         <v>85</v>
       </c>
@@ -6550,8 +6551,8 @@
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="23" t="s">
         <v>319</v>
       </c>
@@ -6583,8 +6584,8 @@
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="17" t="s">
         <v>70</v>
       </c>
@@ -6616,8 +6617,8 @@
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="17" t="s">
         <v>329</v>
       </c>
@@ -6651,8 +6652,8 @@
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="17" t="s">
         <v>328</v>
       </c>
@@ -6685,8 +6686,8 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="17" t="s">
         <v>355</v>
       </c>
@@ -6719,8 +6720,8 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="17" t="s">
         <v>309</v>
       </c>
@@ -6754,8 +6755,8 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="23" t="s">
         <v>324</v>
       </c>
@@ -6780,8 +6781,8 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="17" t="s">
         <v>330</v>
       </c>
@@ -6812,8 +6813,8 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="17" t="s">
         <v>331</v>
       </c>
@@ -6847,8 +6848,8 @@
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="17" t="s">
         <v>129</v>
       </c>
@@ -6882,8 +6883,8 @@
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="44" t="s">
         <v>100</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -6920,8 +6921,8 @@
       <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="17" t="s">
         <v>117</v>
       </c>
@@ -6952,8 +6953,8 @@
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="17" t="s">
         <v>149</v>
       </c>
@@ -6984,8 +6985,8 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="42" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="44" t="s">
         <v>102</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -7025,8 +7026,8 @@
       <c r="O20" s="19"/>
     </row>
     <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="24" t="s">
         <v>335</v>
       </c>
@@ -7057,8 +7058,8 @@
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="17" t="s">
         <v>157</v>
       </c>
@@ -7092,8 +7093,8 @@
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="17" t="s">
         <v>162</v>
       </c>
@@ -7127,8 +7128,8 @@
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="42" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -7170,8 +7171,8 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="25" t="s">
         <v>86</v>
       </c>
@@ -7202,8 +7203,8 @@
       <c r="O25" s="19"/>
     </row>
     <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="25" t="s">
         <v>104</v>
       </c>
@@ -7237,8 +7238,8 @@
       <c r="O26" s="19"/>
     </row>
     <row r="27" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="25" t="s">
         <v>87</v>
       </c>
@@ -7272,8 +7273,8 @@
       <c r="O27" s="19"/>
     </row>
     <row r="28" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="42" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="44" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="17" t="s">
@@ -7310,8 +7311,8 @@
       <c r="O28" s="19"/>
     </row>
     <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="17" t="s">
         <v>362</v>
       </c>
@@ -7345,8 +7346,8 @@
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="17" t="s">
         <v>123</v>
       </c>
@@ -7377,8 +7378,8 @@
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="17" t="s">
         <v>146</v>
       </c>
@@ -7409,8 +7410,8 @@
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="17" t="s">
         <v>242</v>
       </c>
@@ -7441,8 +7442,8 @@
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="17" t="s">
         <v>249</v>
       </c>
@@ -7476,8 +7477,8 @@
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="17" t="s">
         <v>239</v>
       </c>
@@ -7508,8 +7509,8 @@
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="42" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="44" t="s">
         <v>147</v>
       </c>
       <c r="C35" s="17" t="s">
@@ -7542,8 +7543,8 @@
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="17" t="s">
         <v>281</v>
       </c>
@@ -7577,8 +7578,8 @@
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="17" t="s">
         <v>344</v>
       </c>
@@ -7612,8 +7613,8 @@
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="17" t="s">
         <v>255</v>
       </c>
@@ -7647,8 +7648,8 @@
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="42" t="s">
+      <c r="A39" s="40"/>
+      <c r="B39" s="44" t="s">
         <v>148</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -7684,8 +7685,8 @@
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="17" t="s">
         <v>266</v>
       </c>
@@ -7719,8 +7720,8 @@
       <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="42"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="17" t="s">
         <v>186</v>
       </c>
@@ -7751,8 +7752,8 @@
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="43" t="s">
+      <c r="A42" s="40"/>
+      <c r="B42" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="25" t="s">
@@ -7792,8 +7793,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="25" t="s">
         <v>17</v>
       </c>
@@ -7824,8 +7825,8 @@
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="25" t="s">
         <v>22</v>
       </c>
@@ -7856,8 +7857,8 @@
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="25" t="s">
         <v>27</v>
       </c>
@@ -7888,8 +7889,8 @@
       <c r="M45" s="10"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="25" t="s">
         <v>32</v>
       </c>
@@ -7920,8 +7921,8 @@
       <c r="M46" s="10"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="25" t="s">
         <v>37</v>
       </c>
@@ -7952,8 +7953,8 @@
       <c r="M47" s="10"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="44" t="s">
+      <c r="A48" s="40"/>
+      <c r="B48" s="46" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="17" t="s">
@@ -7990,8 +7991,8 @@
       <c r="O48" s="19"/>
     </row>
     <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="17" t="s">
         <v>300</v>
       </c>
@@ -8026,8 +8027,8 @@
       <c r="O49" s="19"/>
     </row>
     <row r="50" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="17" t="s">
         <v>295</v>
       </c>
@@ -8062,8 +8063,8 @@
       <c r="O50" s="19"/>
     </row>
     <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
-      <c r="B51" s="44"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="17" t="s">
         <v>261</v>
       </c>
@@ -8098,8 +8099,8 @@
       <c r="O51" s="19"/>
     </row>
     <row r="52" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="17" t="s">
         <v>46</v>
       </c>
@@ -8130,8 +8131,8 @@
       <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="17" t="s">
         <v>343</v>
       </c>
@@ -8161,8 +8162,8 @@
       <c r="N53" s="7"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="17" t="s">
         <v>55</v>
       </c>
@@ -8196,8 +8197,8 @@
       <c r="N54" s="7"/>
     </row>
     <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="44"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="17" t="s">
         <v>60</v>
       </c>
@@ -8231,8 +8232,8 @@
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="44"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="17" t="s">
         <v>65</v>
       </c>
@@ -8266,8 +8267,8 @@
       <c r="N56" s="7"/>
     </row>
     <row r="57" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
-      <c r="B57" s="44"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="17" t="s">
         <v>106</v>
       </c>
@@ -8298,8 +8299,8 @@
       <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="44"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="17" t="s">
         <v>111</v>
       </c>
@@ -8333,8 +8334,8 @@
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="44"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="17" t="s">
         <v>80</v>
       </c>
@@ -8368,8 +8369,8 @@
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="44" t="s">
+      <c r="A60" s="40"/>
+      <c r="B60" s="46" t="s">
         <v>134</v>
       </c>
       <c r="C60" s="25" t="s">
@@ -8411,8 +8412,8 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
-      <c r="B61" s="44"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="25" t="s">
         <v>290</v>
       </c>
@@ -8444,8 +8445,8 @@
       <c r="O61" s="19"/>
     </row>
     <row r="62" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="44"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="25" t="s">
         <v>287</v>
       </c>
@@ -8475,8 +8476,8 @@
       <c r="O62" s="19"/>
     </row>
     <row r="63" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
-      <c r="B63" s="44"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="25" t="s">
         <v>346</v>
       </c>
@@ -8509,8 +8510,8 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-      <c r="B64" s="42" t="s">
+      <c r="A64" s="40"/>
+      <c r="B64" s="44" t="s">
         <v>207</v>
       </c>
       <c r="C64" s="25" t="s">
@@ -8550,8 +8551,8 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
-      <c r="B65" s="44"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="25" t="s">
         <v>212</v>
       </c>
@@ -8580,8 +8581,8 @@
       <c r="M65" s="10"/>
     </row>
     <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
-      <c r="B66" s="44"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="25" t="s">
         <v>214</v>
       </c>
@@ -8612,8 +8613,8 @@
       <c r="M66" s="10"/>
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="44"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="25" t="s">
         <v>219</v>
       </c>
@@ -8644,7 +8645,7 @@
       <c r="M67" s="10"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="22"/>
       <c r="C68" s="25"/>
       <c r="D68" s="11"/>
@@ -8658,22 +8659,30 @@
       <c r="M68" s="10"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="45"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="A5:A23"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="A35:A41"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="A42:A69"/>
@@ -8683,14 +8692,6 @@
     <mergeCell ref="B64:B67"/>
     <mergeCell ref="B69:M69"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="A5:A23"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="B42">
     <cfRule type="expression" dxfId="43" priority="65" stopIfTrue="1">
@@ -8868,12 +8869,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9055,15 +9053,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BC436DC-1043-44B4-B2B1-062ADA839305}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B5D6DA9-DA9C-40FD-864E-7002926A1C0C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1a832241-987a-4d79-9fcd-efb8bfe6011c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9087,17 +9096,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B5D6DA9-DA9C-40FD-864E-7002926A1C0C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BC436DC-1043-44B4-B2B1-062ADA839305}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1a832241-987a-4d79-9fcd-efb8bfe6011c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>